--- a/data/trans_bre/P1413-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1413-Clase-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-0.0315678267104734</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5792056808143712</v>
+        <v>0.5792056808143713</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.59973478629034</v>
+        <v>-6.081114825471711</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5085335084401084</v>
+        <v>1.035929038052373</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.427894995073618</v>
+        <v>-4.112320361793486</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.769836137256096</v>
+        <v>4.727243727892291</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.402713950307317</v>
+        <v>-0.3862290044302289</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004582207775455684</v>
+        <v>0.1063914917080605</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4574085790948875</v>
+        <v>-0.4216161293805782</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2283644773326044</v>
+        <v>0.2433022300625146</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.561410502747777</v>
+        <v>3.712510481729747</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.28249005003151</v>
+        <v>10.16274076923154</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.903447717177487</v>
+        <v>3.900952247068066</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.85851999519884</v>
+        <v>13.63705463280195</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2971079055824994</v>
+        <v>0.3103870057264987</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.795845468486417</v>
+        <v>1.853870029743142</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.593839139117871</v>
+        <v>0.6721663239721919</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.007703245719979</v>
+        <v>1.036890528216325</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>6.032778016639021</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11.34219623648871</v>
+        <v>11.34219623648872</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6775297489090749</v>
@@ -749,7 +749,7 @@
         <v>1.060046228250447</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.6806408522985359</v>
+        <v>0.6806408522985363</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.083340073379318</v>
+        <v>1.840022811796924</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.027276282229229</v>
+        <v>1.363164993711135</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.742357664489659</v>
+        <v>1.344193791016973</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.743896622521639</v>
+        <v>5.630708317900995</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1517253983946757</v>
+        <v>0.1100535806692548</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08904017364242647</v>
+        <v>0.1323834567298539</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2025962509953322</v>
+        <v>0.1355502211643902</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3378795017527437</v>
+        <v>0.282890115178677</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.59628826436846</v>
+        <v>11.7994536584196</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.29688132682136</v>
+        <v>10.57118859091872</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.973202359010349</v>
+        <v>10.32570117962793</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16.53323591301663</v>
+        <v>16.37242186484387</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.46565652791776</v>
+        <v>1.499739468686651</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.539147828617847</v>
+        <v>1.653547540527141</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.459235518477177</v>
+        <v>2.591703265079886</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.162557562711103</v>
+        <v>1.136930116084211</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.445008914312907</v>
+        <v>-4.82886546218878</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4205462146196719</v>
+        <v>0.2237321917733932</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.033171081469383</v>
+        <v>6.287036246894235</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.267961675920806</v>
+        <v>7.965741318263603</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2701832494908553</v>
+        <v>-0.2351873386731658</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02944656244728007</v>
+        <v>0.02144557472461867</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5856795016519705</v>
+        <v>0.6193149825392706</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3136826403490135</v>
+        <v>0.312236344054386</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.836196501624007</v>
+        <v>9.481724471117284</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.1550256494663</v>
+        <v>10.64513343614634</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20.46321428331594</v>
+        <v>19.79737669714676</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21.51800127850023</v>
+        <v>21.6412437254116</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5620421926165169</v>
+        <v>0.5672125136045536</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.26211012285876</v>
+        <v>1.206787617260263</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.106412422548735</v>
+        <v>2.967726921045006</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.090417585709655</v>
+        <v>1.084677857226553</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.894169704382541</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.195602079561488</v>
+        <v>6.195602079561485</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.05847234627300055</v>
@@ -949,7 +949,7 @@
         <v>0.4261180805964891</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2947082189385257</v>
+        <v>0.2947082189385256</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.599020216726188</v>
+        <v>-4.754107583587707</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.64244052741991</v>
+        <v>1.969953930209307</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.879075461724045</v>
+        <v>1.061094415551878</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.654816750978421</v>
+        <v>2.626256837840533</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2141738655234738</v>
+        <v>-0.2265789184093632</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1419002757544037</v>
+        <v>0.1564955310360694</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07247739008215194</v>
+        <v>0.0992245610382974</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1215757690290904</v>
+        <v>0.1086571015238321</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.661444496199968</v>
+        <v>2.420278363948676</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.378536234428271</v>
+        <v>8.394261273833646</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.889767896115945</v>
+        <v>6.800156419828303</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.949945414680766</v>
+        <v>9.854415861466457</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1390781290352776</v>
+        <v>0.1241855438810125</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8598981177165893</v>
+        <v>0.8280244280101922</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8588843116868576</v>
+        <v>0.88186514838843</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.526062058803099</v>
+        <v>0.5144489685949144</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.4329072544792448</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.9013427998547109</v>
+        <v>0.9013427998547111</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.868257691049356</v>
+        <v>-2.846528226184726</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>10.9526640682225</v>
+        <v>10.53295253148446</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.160799800495237</v>
+        <v>1.541376209622743</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14.10115155476545</v>
+        <v>14.32945586528236</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1367408654572197</v>
+        <v>-0.1290010394939304</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.024443913110953</v>
+        <v>0.946778856163391</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06531564198874762</v>
+        <v>0.1058941460106608</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.595695285076393</v>
+        <v>0.5887924892090256</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.434701674073032</v>
+        <v>7.769549560282645</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>19.13636428733886</v>
+        <v>18.47859608371325</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.174952914393407</v>
+        <v>8.933162443442475</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22.9954487815977</v>
+        <v>23.69715009812171</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4630288874209424</v>
+        <v>0.4920261322030828</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.926001355221683</v>
+        <v>2.700275850802815</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8730026878842281</v>
+        <v>0.8959743069131656</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.269598032991357</v>
+        <v>1.345566709407838</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>13.47040742461403</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21.38857984702173</v>
+        <v>21.38857984702175</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>9.694758257290392</v>
@@ -1149,7 +1149,7 @@
         <v>34.08732322729795</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2.463993397650546</v>
+        <v>2.463993397650547</v>
       </c>
     </row>
     <row r="20">
@@ -1160,26 +1160,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>15.30446981773503</v>
+        <v>15.68058808889263</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>13.69736618754151</v>
+        <v>13.59937848716059</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11.1340387786031</v>
+        <v>11.33739789904738</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13.83240270576545</v>
+        <v>13.66299193322855</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>3.969211887385475</v>
+        <v>3.828868199628464</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>2.451952095523658</v>
+        <v>2.406435881448882</v>
       </c>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>0.8296495336261982</v>
+        <v>0.8350205513176565</v>
       </c>
     </row>
     <row r="21">
@@ -1190,26 +1190,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>21.07087384415111</v>
+        <v>21.17360657694454</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>20.31855118872215</v>
+        <v>20.00815826440732</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16.03031318682163</v>
+        <v>15.97598749399259</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>26.78176536987043</v>
+        <v>26.43200455929191</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>30.2130424516336</v>
+        <v>28.27668396722721</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>23.57173546307018</v>
+        <v>24.79672492637961</v>
       </c>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>5.737638311142592</v>
+        <v>5.580980861640652</v>
       </c>
     </row>
     <row r="22">
@@ -1245,7 +1245,7 @@
         <v>0.6913189433193313</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.6493521844888608</v>
+        <v>0.6493521844888611</v>
       </c>
     </row>
     <row r="23">
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.14632066963322</v>
+        <v>1.26181313177509</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.342060375365243</v>
+        <v>7.410679996115831</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.027499574999515</v>
+        <v>4.03239555462358</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10.20703708889725</v>
+        <v>10.37198955683432</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.06787679895849619</v>
+        <v>0.07171740797667343</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.743380417901729</v>
+        <v>0.7500702831938372</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4460365971853384</v>
+        <v>0.4421981534630178</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.5162753256008975</v>
+        <v>0.523402736854256</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.949493337162252</v>
+        <v>5.025916029307824</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.79597154216307</v>
+        <v>10.67109207942998</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.254094701583015</v>
+        <v>7.241745183159799</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.97015954562284</v>
+        <v>14.13416643661276</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3274619043756228</v>
+        <v>0.3282594032539922</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.285761737350996</v>
+        <v>1.282692631681477</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.957012520183312</v>
+        <v>0.9555957121033066</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.7903468890901242</v>
+        <v>0.8012461704317142</v>
       </c>
     </row>
     <row r="25">
